--- a/TestSheet.xlsx
+++ b/TestSheet.xlsx
@@ -140,47 +140,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
     </row>
